--- a/Day08/result/kto_폴란드.xlsx
+++ b/Day08/result/kto_폴란드.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713</v>
+        <v>378</v>
       </c>
       <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27</v>
-      </c>
       <c r="F2" t="n">
-        <v>574</v>
+        <v>431</v>
       </c>
       <c r="G2" t="n">
-        <v>1324</v>
+        <v>848</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>53.9</v>
+        <v>44.6</v>
       </c>
       <c r="K2" t="n">
         <v>0.1</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>713</v>
+        <v>321</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>574</v>
+        <v>395</v>
       </c>
       <c r="G3" t="n">
-        <v>1324</v>
+        <v>751</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>53.9</v>
+        <v>42.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.1</v>
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713</v>
+        <v>464</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>574</v>
+        <v>464</v>
       </c>
       <c r="G4" t="n">
-        <v>1324</v>
+        <v>952</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>53.9</v>
+        <v>48.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.1</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>713</v>
+        <v>391</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="G5" t="n">
-        <v>1324</v>
+        <v>938</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>53.9</v>
+        <v>41.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.1</v>
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>713</v>
+        <v>537</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="G6" t="n">
-        <v>1324</v>
+        <v>1110</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>53.9</v>
+        <v>48.4</v>
       </c>
       <c r="K6" t="n">
         <v>0.1</v>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713</v>
+        <v>413</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="G7" t="n">
-        <v>1324</v>
+        <v>912</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>53.9</v>
+        <v>45.3</v>
       </c>
       <c r="K7" t="n">
         <v>0.1</v>
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>713</v>
+        <v>532</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>1324</v>
+        <v>1074</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>53.9</v>
+        <v>49.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.1</v>
@@ -784,22 +784,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>713</v>
+        <v>493</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="G9" t="n">
-        <v>1324</v>
+        <v>1096</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>53.9</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
         <v>0.1</v>
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713</v>
+        <v>472</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>574</v>
+        <v>474</v>
       </c>
       <c r="G10" t="n">
-        <v>1324</v>
+        <v>977</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>53.9</v>
+        <v>48.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.1</v>
@@ -866,22 +866,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>574</v>
+        <v>474</v>
       </c>
       <c r="G11" t="n">
-        <v>1324</v>
+        <v>1215</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>53.9</v>
+        <v>58.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.1</v>
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>713</v>
+        <v>585</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="G12" t="n">
-        <v>1324</v>
+        <v>992</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>53.9</v>
+        <v>59</v>
       </c>
       <c r="K12" t="n">
         <v>0.1</v>
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713</v>
+        <v>287</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>574</v>
+        <v>382</v>
       </c>
       <c r="G13" t="n">
-        <v>1324</v>
+        <v>690</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>53.9</v>
+        <v>41.6</v>
       </c>
       <c r="K13" t="n">
         <v>0.1</v>
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>713</v>
+        <v>446</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>574</v>
+        <v>430</v>
       </c>
       <c r="G14" t="n">
-        <v>1324</v>
+        <v>924</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>53.9</v>
+        <v>48.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.1</v>
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>713</v>
+        <v>348</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="G15" t="n">
-        <v>1324</v>
+        <v>890</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>53.9</v>
+        <v>39.1</v>
       </c>
       <c r="K15" t="n">
         <v>0.1</v>
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713</v>
+        <v>524</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="G16" t="n">
-        <v>1324</v>
+        <v>1047</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>53.9</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
         <v>0.1</v>
@@ -1112,22 +1112,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>713</v>
+        <v>526</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>574</v>
+        <v>418</v>
       </c>
       <c r="G17" t="n">
-        <v>1324</v>
+        <v>964</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>53.9</v>
+        <v>54.6</v>
       </c>
       <c r="K17" t="n">
         <v>0.1</v>
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>713</v>
+        <v>516</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G18" t="n">
-        <v>1324</v>
+        <v>1131</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>53.9</v>
+        <v>45.6</v>
       </c>
       <c r="K18" t="n">
         <v>0.1</v>
@@ -1194,22 +1194,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713</v>
+        <v>521</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G19" t="n">
-        <v>1324</v>
+        <v>1116</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>53.9</v>
+        <v>46.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.1</v>
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>713</v>
+        <v>534</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>574</v>
+        <v>692</v>
       </c>
       <c r="G20" t="n">
-        <v>1324</v>
+        <v>1261</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>53.9</v>
+        <v>42.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.1</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>713</v>
+        <v>674</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="G21" t="n">
-        <v>1324</v>
+        <v>1289</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>53.9</v>
+        <v>52.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.1</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713</v>
+        <v>542</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="G22" t="n">
-        <v>1324</v>
+        <v>1127</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>53.9</v>
+        <v>48.1</v>
       </c>
       <c r="K22" t="n">
         <v>0.1</v>
@@ -1358,22 +1358,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>574</v>
+        <v>460</v>
       </c>
       <c r="G23" t="n">
-        <v>1324</v>
+        <v>1153</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>53.9</v>
+        <v>58.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.1</v>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>713</v>
+        <v>831</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="G24" t="n">
-        <v>1324</v>
+        <v>1510</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>53.9</v>
+        <v>55</v>
       </c>
       <c r="K24" t="n">
         <v>0.1</v>
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="G25" t="n">
-        <v>1324</v>
+        <v>1039</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>53.9</v>
+        <v>41.4</v>
       </c>
       <c r="K25" t="n">
         <v>0.1</v>
@@ -1481,22 +1481,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>713</v>
+        <v>537</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="G26" t="n">
-        <v>1324</v>
+        <v>1113</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>53.9</v>
+        <v>48.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.1</v>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>713</v>
+        <v>628</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
-        <v>574</v>
+        <v>399</v>
       </c>
       <c r="G27" t="n">
-        <v>1324</v>
+        <v>1081</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>53.9</v>
+        <v>58.1</v>
       </c>
       <c r="K27" t="n">
         <v>0.1</v>
@@ -1563,22 +1563,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713</v>
+        <v>684</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>574</v>
+        <v>319</v>
       </c>
       <c r="G28" t="n">
-        <v>1324</v>
+        <v>1026</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>53.9</v>
+        <v>66.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.1</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>713</v>
+        <v>615</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="G29" t="n">
-        <v>1324</v>
+        <v>1137</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="K29" t="n">
         <v>0.1</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="G30" t="n">
-        <v>1324</v>
+        <v>1265</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>53.9</v>
+        <v>58.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.1</v>
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>574</v>
+        <v>421</v>
       </c>
       <c r="G31" t="n">
-        <v>1324</v>
+        <v>1132</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>53.9</v>
+        <v>61</v>
       </c>
       <c r="K31" t="n">
         <v>0.1</v>
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>574</v>
+        <v>406</v>
       </c>
       <c r="G32" t="n">
-        <v>1324</v>
+        <v>1094</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>53.9</v>
+        <v>61.9</v>
       </c>
       <c r="K32" t="n">
         <v>0.1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F33" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="G33" t="n">
-        <v>1324</v>
+        <v>1182</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="K33" t="n">
         <v>0.1</v>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="C34" t="n">
         <v>10</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="G34" t="n">
-        <v>1324</v>
+        <v>1201</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>53.9</v>
+        <v>58.1</v>
       </c>
       <c r="K34" t="n">
         <v>0.1</v>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>713</v>
+        <v>903</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="G35" t="n">
-        <v>1324</v>
+        <v>1417</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>53.9</v>
+        <v>63.7</v>
       </c>
       <c r="K35" t="n">
         <v>0.1</v>
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>713</v>
+        <v>794</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>574</v>
+        <v>376</v>
       </c>
       <c r="G36" t="n">
-        <v>1324</v>
+        <v>1188</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>53.9</v>
+        <v>66.8</v>
       </c>
       <c r="K36" t="n">
         <v>0.1</v>
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713</v>
+        <v>493</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>574</v>
+        <v>315</v>
       </c>
       <c r="G37" t="n">
-        <v>1324</v>
+        <v>820</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>53.9</v>
+        <v>60.1</v>
       </c>
       <c r="K37" t="n">
         <v>0.1</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>713</v>
+        <v>550</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>574</v>
+        <v>406</v>
       </c>
       <c r="G38" t="n">
-        <v>1324</v>
+        <v>1002</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="K38" t="n">
         <v>0.1</v>
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>713</v>
+        <v>412</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="G39" t="n">
-        <v>1324</v>
+        <v>796</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>53.9</v>
+        <v>51.8</v>
       </c>
       <c r="K39" t="n">
         <v>0.1</v>
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>713</v>
+        <v>608</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>574</v>
+        <v>387</v>
       </c>
       <c r="G40" t="n">
-        <v>1324</v>
+        <v>1028</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>53.9</v>
+        <v>59.1</v>
       </c>
       <c r="K40" t="n">
         <v>0.1</v>
@@ -2096,22 +2096,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>713</v>
+        <v>612</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>574</v>
+        <v>408</v>
       </c>
       <c r="G41" t="n">
-        <v>1324</v>
+        <v>1060</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>53.9</v>
+        <v>57.7</v>
       </c>
       <c r="K41" t="n">
         <v>0.1</v>
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>574</v>
+        <v>382</v>
       </c>
       <c r="G42" t="n">
-        <v>1324</v>
+        <v>1131</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>53.9</v>
+        <v>61.2</v>
       </c>
       <c r="K42" t="n">
         <v>0.1</v>
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="G43" t="n">
-        <v>1324</v>
+        <v>1391</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>53.9</v>
+        <v>57.6</v>
       </c>
       <c r="K43" t="n">
         <v>0.1</v>
@@ -2219,22 +2219,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>713</v>
+        <v>598</v>
       </c>
       <c r="C44" t="n">
+        <v>40</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>10</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>27</v>
-      </c>
       <c r="F44" t="n">
-        <v>574</v>
+        <v>375</v>
       </c>
       <c r="G44" t="n">
-        <v>1324</v>
+        <v>1023</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>53.9</v>
+        <v>58.5</v>
       </c>
       <c r="K44" t="n">
         <v>0.1</v>
@@ -2260,22 +2260,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>713</v>
+        <v>601</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F45" t="n">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="G45" t="n">
-        <v>1324</v>
+        <v>1272</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>53.9</v>
+        <v>47.2</v>
       </c>
       <c r="K45" t="n">
         <v>0.1</v>
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C46" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>10</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>27</v>
-      </c>
       <c r="F46" t="n">
-        <v>574</v>
+        <v>405</v>
       </c>
       <c r="G46" t="n">
-        <v>1324</v>
+        <v>1180</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>53.9</v>
+        <v>61.2</v>
       </c>
       <c r="K46" t="n">
         <v>0.1</v>
@@ -2342,22 +2342,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>713</v>
+        <v>832</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="G47" t="n">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>53.9</v>
+        <v>62.7</v>
       </c>
       <c r="K47" t="n">
         <v>0.1</v>
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="G48" t="n">
-        <v>1324</v>
+        <v>1116</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>53.9</v>
+        <v>63.1</v>
       </c>
       <c r="K48" t="n">
         <v>0.1</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>713</v>
+        <v>527</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>574</v>
+        <v>415</v>
       </c>
       <c r="G49" t="n">
-        <v>1324</v>
+        <v>975</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="K49" t="n">
         <v>0.1</v>
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>713</v>
+        <v>559</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F50" t="n">
-        <v>574</v>
+        <v>428</v>
       </c>
       <c r="G50" t="n">
-        <v>1324</v>
+        <v>1045</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="K50" t="n">
         <v>0.1</v>
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>713</v>
+        <v>468</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>574</v>
+        <v>332</v>
       </c>
       <c r="G51" t="n">
-        <v>1324</v>
+        <v>875</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="K51" t="n">
         <v>0.1</v>
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>574</v>
+        <v>395</v>
       </c>
       <c r="G52" t="n">
-        <v>1324</v>
+        <v>1118</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>53.9</v>
+        <v>61.3</v>
       </c>
       <c r="K52" t="n">
         <v>0.1</v>
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>574</v>
+        <v>339</v>
       </c>
       <c r="G53" t="n">
-        <v>1324</v>
+        <v>1100</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>53.9</v>
+        <v>65.7</v>
       </c>
       <c r="K53" t="n">
         <v>0.1</v>
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>713</v>
+        <v>904</v>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F54" t="n">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="G54" t="n">
-        <v>1324</v>
+        <v>1511</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>53.9</v>
+        <v>59.8</v>
       </c>
       <c r="K54" t="n">
         <v>0.1</v>
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>713</v>
+        <v>668</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="G55" t="n">
-        <v>1324</v>
+        <v>1120</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>53.9</v>
+        <v>59.6</v>
       </c>
       <c r="K55" t="n">
         <v>0.1</v>
@@ -2711,22 +2711,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>713</v>
+        <v>829</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="G56" t="n">
-        <v>1324</v>
+        <v>1362</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>53.9</v>
+        <v>60.9</v>
       </c>
       <c r="K56" t="n">
         <v>0.1</v>
@@ -2752,22 +2752,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F57" t="n">
-        <v>574</v>
+        <v>444</v>
       </c>
       <c r="G57" t="n">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>53.9</v>
+        <v>55.8</v>
       </c>
       <c r="K57" t="n">
         <v>0.1</v>
@@ -2793,22 +2793,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>713</v>
+        <v>1190</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F58" t="n">
-        <v>574</v>
+        <v>418</v>
       </c>
       <c r="G58" t="n">
-        <v>1324</v>
+        <v>1695</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>53.9</v>
+        <v>70.2</v>
       </c>
       <c r="K58" t="n">
         <v>0.1</v>
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>713</v>
+        <v>984</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>574</v>
+        <v>448</v>
       </c>
       <c r="G59" t="n">
-        <v>1324</v>
+        <v>1485</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>53.9</v>
+        <v>66.3</v>
       </c>
       <c r="K59" t="n">
         <v>0.1</v>
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>713</v>
+        <v>864</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="G60" t="n">
-        <v>1324</v>
+        <v>1285</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>53.9</v>
+        <v>67.2</v>
       </c>
       <c r="K60" t="n">
         <v>0.1</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>713</v>
+        <v>529</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>574</v>
+        <v>376</v>
       </c>
       <c r="G61" t="n">
-        <v>1324</v>
+        <v>942</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>53.9</v>
+        <v>56.2</v>
       </c>
       <c r="K61" t="n">
         <v>0.1</v>
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>713</v>
+        <v>442</v>
       </c>
       <c r="C62" t="n">
+        <v>52</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
         <v>10</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>27</v>
-      </c>
       <c r="F62" t="n">
-        <v>574</v>
+        <v>404</v>
       </c>
       <c r="G62" t="n">
-        <v>1324</v>
+        <v>908</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>53.9</v>
+        <v>48.7</v>
       </c>
       <c r="K62" t="n">
         <v>0.1</v>
@@ -2998,22 +2998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>713</v>
+        <v>474</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F63" t="n">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="G63" t="n">
-        <v>1324</v>
+        <v>943</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>53.9</v>
+        <v>50.3</v>
       </c>
       <c r="K63" t="n">
         <v>0.1</v>
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>574</v>
+        <v>398</v>
       </c>
       <c r="G64" t="n">
-        <v>1324</v>
+        <v>1108</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>53.9</v>
+        <v>60.6</v>
       </c>
       <c r="K64" t="n">
         <v>0.1</v>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>713</v>
+        <v>781</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="G65" t="n">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>53.9</v>
+        <v>58.5</v>
       </c>
       <c r="K65" t="n">
         <v>0.1</v>
@@ -3121,22 +3121,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F66" t="n">
-        <v>574</v>
+        <v>375</v>
       </c>
       <c r="G66" t="n">
-        <v>1324</v>
+        <v>1167</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>53.9</v>
+        <v>62.6</v>
       </c>
       <c r="K66" t="n">
         <v>0.1</v>
@@ -3162,22 +3162,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>574</v>
+        <v>430</v>
       </c>
       <c r="G67" t="n">
-        <v>1324</v>
+        <v>1255</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>53.9</v>
+        <v>62.4</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="C68" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
         <v>10</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>27</v>
-      </c>
       <c r="F68" t="n">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="G68" t="n">
-        <v>1324</v>
+        <v>1183</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>53.9</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69">
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>713</v>
+        <v>651</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F69" t="n">
-        <v>574</v>
+        <v>350</v>
       </c>
       <c r="G69" t="n">
-        <v>1324</v>
+        <v>1129</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>53.9</v>
+        <v>57.7</v>
       </c>
       <c r="K69" t="n">
         <v>0.1</v>
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>713</v>
+        <v>1139</v>
       </c>
       <c r="C70" t="n">
+        <v>37</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
         <v>10</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>27</v>
-      </c>
       <c r="F70" t="n">
-        <v>574</v>
+        <v>396</v>
       </c>
       <c r="G70" t="n">
-        <v>1324</v>
+        <v>1583</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>53.9</v>
+        <v>72</v>
       </c>
       <c r="K70" t="n">
         <v>0.1</v>
@@ -3326,22 +3326,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>713</v>
+        <v>970</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>574</v>
+        <v>363</v>
       </c>
       <c r="G71" t="n">
-        <v>1324</v>
+        <v>1358</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>53.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K71" t="n">
         <v>0.1</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F72" t="n">
-        <v>574</v>
+        <v>296</v>
       </c>
       <c r="G72" t="n">
-        <v>1324</v>
+        <v>1059</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>53.9</v>
+        <v>68.2</v>
       </c>
       <c r="K72" t="n">
         <v>0.1</v>
@@ -3408,22 +3408,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>713</v>
+        <v>483</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>574</v>
+        <v>328</v>
       </c>
       <c r="G73" t="n">
-        <v>1324</v>
+        <v>840</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>53.9</v>
+        <v>57.5</v>
       </c>
       <c r="K73" t="n">
         <v>0.1</v>
@@ -3449,22 +3449,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>713</v>
+        <v>471</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F74" t="n">
-        <v>574</v>
+        <v>288</v>
       </c>
       <c r="G74" t="n">
-        <v>1324</v>
+        <v>817</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>53.9</v>
+        <v>57.6</v>
       </c>
       <c r="K74" t="n">
         <v>0.1</v>
@@ -3490,22 +3490,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>713</v>
+        <v>508</v>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F75" t="n">
-        <v>574</v>
+        <v>439</v>
       </c>
       <c r="G75" t="n">
-        <v>1324</v>
+        <v>1037</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>53.9</v>
+        <v>49</v>
       </c>
       <c r="K75" t="n">
         <v>0.1</v>
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>574</v>
+        <v>462</v>
       </c>
       <c r="G76" t="n">
-        <v>1324</v>
+        <v>1222</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>53.9</v>
+        <v>59.4</v>
       </c>
       <c r="K76" t="n">
         <v>0.1</v>
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>713</v>
+        <v>881</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F77" t="n">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="G77" t="n">
-        <v>1324</v>
+        <v>1384</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>53.9</v>
+        <v>63.7</v>
       </c>
       <c r="K77" t="n">
         <v>0.1</v>
@@ -3613,22 +3613,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>713</v>
+        <v>908</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>574</v>
+        <v>362</v>
       </c>
       <c r="G78" t="n">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>53.9</v>
+        <v>67.3</v>
       </c>
       <c r="K78" t="n">
         <v>0.1</v>
@@ -3654,22 +3654,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>713</v>
+        <v>871</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F79" t="n">
-        <v>574</v>
+        <v>398</v>
       </c>
       <c r="G79" t="n">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>53.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="K79" t="n">
         <v>0.1</v>
@@ -3695,22 +3695,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>713</v>
+        <v>857</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>574</v>
+        <v>436</v>
       </c>
       <c r="G80" t="n">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>53.9</v>
+        <v>64.2</v>
       </c>
       <c r="K80" t="n">
         <v>0.1</v>
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F81" t="n">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="G81" t="n">
-        <v>1324</v>
+        <v>1373</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>53.9</v>
+        <v>55.6</v>
       </c>
       <c r="K81" t="n">
         <v>0.1</v>
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>713</v>
+        <v>1003</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="G82" t="n">
-        <v>1324</v>
+        <v>1554</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>53.9</v>
+        <v>64.5</v>
       </c>
       <c r="K82" t="n">
         <v>0.1</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>713</v>
+        <v>1490</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>574</v>
+        <v>677</v>
       </c>
       <c r="G83" t="n">
-        <v>1324</v>
+        <v>2199</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>53.9</v>
+        <v>67.8</v>
       </c>
       <c r="K83" t="n">
         <v>0.1</v>
@@ -3859,22 +3859,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>713</v>
+        <v>1260</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F84" t="n">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="G84" t="n">
-        <v>1324</v>
+        <v>1832</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>53.9</v>
+        <v>68.8</v>
       </c>
       <c r="K84" t="n">
         <v>0.1</v>
@@ -3900,22 +3900,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>713</v>
+        <v>653</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="G85" t="n">
-        <v>1324</v>
+        <v>1210</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="K85" t="n">
         <v>0.1</v>
@@ -3941,22 +3941,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>713</v>
+        <v>619</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="G86" t="n">
-        <v>1324</v>
+        <v>1147</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="K86" t="n">
         <v>0.1</v>
@@ -3982,22 +3982,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F87" t="n">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="G87" t="n">
-        <v>1324</v>
+        <v>1458</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>53.9</v>
+        <v>56.1</v>
       </c>
       <c r="K87" t="n">
         <v>0.1</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>713</v>
+        <v>1254</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G88" t="n">
-        <v>1324</v>
+        <v>1865</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>53.9</v>
+        <v>67.2</v>
       </c>
       <c r="K88" t="n">
         <v>0.1</v>
@@ -4064,22 +4064,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>713</v>
+        <v>1451</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G89" t="n">
-        <v>1324</v>
+        <v>2040</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>53.9</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90">
@@ -4105,22 +4105,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>713</v>
+        <v>1143</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="G90" t="n">
-        <v>1324</v>
+        <v>1645</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>53.9</v>
+        <v>69.5</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91">
@@ -4146,22 +4146,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>713</v>
+        <v>1031</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F91" t="n">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="G91" t="n">
-        <v>1324</v>
+        <v>1598</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>53.9</v>
+        <v>64.5</v>
       </c>
       <c r="K91" t="n">
         <v>0.1</v>
@@ -4187,22 +4187,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>713</v>
+        <v>1254</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="G92" t="n">
-        <v>1324</v>
+        <v>1892</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>53.9</v>
+        <v>66.3</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93">
@@ -4228,22 +4228,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>713</v>
+        <v>1185</v>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F93" t="n">
-        <v>574</v>
+        <v>741</v>
       </c>
       <c r="G93" t="n">
-        <v>1324</v>
+        <v>2026</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>53.9</v>
+        <v>58.5</v>
       </c>
       <c r="K93" t="n">
         <v>0.1</v>
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>713</v>
+        <v>1252</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F94" t="n">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="G94" t="n">
-        <v>1324</v>
+        <v>1917</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>53.9</v>
+        <v>65.3</v>
       </c>
       <c r="K94" t="n">
         <v>0.1</v>
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>713</v>
+        <v>1181</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="G95" t="n">
-        <v>1324</v>
+        <v>1837</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>53.9</v>
+        <v>64.3</v>
       </c>
       <c r="K95" t="n">
         <v>0.1</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>713</v>
+        <v>1149</v>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="G96" t="n">
-        <v>1324</v>
+        <v>1820</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>53.9</v>
+        <v>63.1</v>
       </c>
       <c r="K96" t="n">
         <v>0.1</v>
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G97" t="n">
-        <v>1324</v>
+        <v>1417</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>53.9</v>
+        <v>51.7</v>
       </c>
       <c r="K97" t="n">
         <v>0.1</v>
@@ -4433,22 +4433,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F98" t="n">
-        <v>574</v>
+        <v>699</v>
       </c>
       <c r="G98" t="n">
-        <v>1324</v>
+        <v>1504</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>53.9</v>
+        <v>50.1</v>
       </c>
       <c r="K98" t="n">
         <v>0.1</v>
@@ -4474,22 +4474,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>713</v>
+        <v>1025</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F99" t="n">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G99" t="n">
-        <v>1324</v>
+        <v>1683</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>53.9</v>
+        <v>60.9</v>
       </c>
       <c r="K99" t="n">
         <v>0.1</v>
@@ -4515,22 +4515,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>713</v>
+        <v>1068</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G100" t="n">
-        <v>1324</v>
+        <v>1749</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>53.9</v>
+        <v>61.1</v>
       </c>
       <c r="K100" t="n">
         <v>0.1</v>
@@ -4556,22 +4556,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>713</v>
+        <v>1480</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="G101" t="n">
-        <v>1324</v>
+        <v>2102</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>53.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="K101" t="n">
         <v>0.1</v>
@@ -4597,22 +4597,22 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>713</v>
+        <v>1136</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>574</v>
+        <v>701</v>
       </c>
       <c r="G102" t="n">
-        <v>1324</v>
+        <v>1870</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>53.9</v>
+        <v>60.7</v>
       </c>
       <c r="K102" t="n">
         <v>0.1</v>
@@ -4638,22 +4638,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>713</v>
+        <v>1027</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G103" t="n">
-        <v>1324</v>
+        <v>1699</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>53.9</v>
+        <v>60.4</v>
       </c>
       <c r="K103" t="n">
         <v>0.1</v>
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>713</v>
+        <v>1272</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F104" t="n">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="G104" t="n">
-        <v>1324</v>
+        <v>1894</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>53.9</v>
+        <v>67.2</v>
       </c>
       <c r="K104" t="n">
         <v>0.1</v>
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>713</v>
+        <v>1269</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F105" t="n">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="G105" t="n">
-        <v>1324</v>
+        <v>1958</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>53.9</v>
+        <v>64.8</v>
       </c>
       <c r="K105" t="n">
         <v>0.1</v>
@@ -4761,22 +4761,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>713</v>
+        <v>1533</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F106" t="n">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="G106" t="n">
-        <v>1324</v>
+        <v>2168</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>53.9</v>
+        <v>70.7</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="107">
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>713</v>
+        <v>1486</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="G107" t="n">
-        <v>1324</v>
+        <v>2139</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>53.9</v>
+        <v>69.5</v>
       </c>
       <c r="K107" t="n">
         <v>0.1</v>
@@ -4843,22 +4843,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>713</v>
+        <v>1221</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F108" t="n">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="G108" t="n">
-        <v>1324</v>
+        <v>1913</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>53.9</v>
+        <v>63.8</v>
       </c>
       <c r="K108" t="n">
         <v>0.1</v>
@@ -4884,22 +4884,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F109" t="n">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="G109" t="n">
-        <v>1324</v>
+        <v>1292</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>53.9</v>
+        <v>55.3</v>
       </c>
       <c r="K109" t="n">
         <v>0.1</v>
@@ -4966,22 +4966,22 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>713</v>
+        <v>619</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F111" t="n">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G111" t="n">
-        <v>1324</v>
+        <v>1266</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>53.9</v>
+        <v>48.9</v>
       </c>
       <c r="K111" t="n">
         <v>0.1</v>
@@ -5007,22 +5007,22 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>713</v>
+        <v>1264</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F112" t="n">
-        <v>574</v>
+        <v>666</v>
       </c>
       <c r="G112" t="n">
-        <v>1324</v>
+        <v>1960</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>53.9</v>
+        <v>64.5</v>
       </c>
       <c r="K112" t="n">
         <v>0.1</v>
@@ -5048,22 +5048,22 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>713</v>
+        <v>1615</v>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G113" t="n">
-        <v>1324</v>
+        <v>2301</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>53.9</v>
+        <v>70.2</v>
       </c>
       <c r="K113" t="n">
         <v>0.1</v>
@@ -5089,22 +5089,22 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>713</v>
+        <v>1489</v>
       </c>
       <c r="C114" t="n">
         <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F114" t="n">
-        <v>574</v>
+        <v>731</v>
       </c>
       <c r="G114" t="n">
-        <v>1324</v>
+        <v>2259</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>53.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="K114" t="n">
         <v>0.1</v>
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>713</v>
+        <v>1479</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F115" t="n">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="G115" t="n">
-        <v>1324</v>
+        <v>2201</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>53.9</v>
+        <v>67.2</v>
       </c>
       <c r="K115" t="n">
         <v>0.1</v>
@@ -5171,22 +5171,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>713</v>
+        <v>1330</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F116" t="n">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="G116" t="n">
-        <v>1324</v>
+        <v>1954</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>53.9</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="K116" t="n">
         <v>0.1</v>
@@ -5212,22 +5212,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>713</v>
+        <v>1571</v>
       </c>
       <c r="C117" t="n">
         <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F117" t="n">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G117" t="n">
-        <v>1324</v>
+        <v>2326</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>53.9</v>
+        <v>67.5</v>
       </c>
       <c r="K117" t="n">
         <v>0.1</v>
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>713</v>
+        <v>1870</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>574</v>
+        <v>668</v>
       </c>
       <c r="G118" t="n">
-        <v>1324</v>
+        <v>2570</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>53.9</v>
+        <v>72.8</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119">
@@ -5294,22 +5294,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>713</v>
+        <v>1549</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>574</v>
+        <v>748</v>
       </c>
       <c r="G119" t="n">
-        <v>1324</v>
+        <v>2326</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>53.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K119" t="n">
         <v>0.1</v>
@@ -5335,22 +5335,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>713</v>
+        <v>1333</v>
       </c>
       <c r="C120" t="n">
         <v>10</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F120" t="n">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G120" t="n">
-        <v>1324</v>
+        <v>2019</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>53.9</v>
+        <v>66</v>
       </c>
       <c r="K120" t="n">
         <v>0.1</v>
@@ -5376,22 +5376,22 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>713</v>
+        <v>789</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F121" t="n">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G121" t="n">
-        <v>1324</v>
+        <v>1407</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>53.9</v>
+        <v>56.1</v>
       </c>
       <c r="K121" t="n">
         <v>0.1</v>
@@ -5417,22 +5417,22 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F122" t="n">
-        <v>574</v>
+        <v>779</v>
       </c>
       <c r="G122" t="n">
-        <v>1324</v>
+        <v>1558</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>53.9</v>
+        <v>47.1</v>
       </c>
       <c r="K122" t="n">
         <v>0.1</v>
@@ -5458,22 +5458,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>713</v>
+        <v>559</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F123" t="n">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="G123" t="n">
-        <v>1324</v>
+        <v>1206</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>53.9</v>
+        <v>46.4</v>
       </c>
       <c r="K123" t="n">
         <v>0.1</v>
@@ -5499,22 +5499,22 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>713</v>
+        <v>134</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F124" t="n">
-        <v>574</v>
+        <v>164</v>
       </c>
       <c r="G124" t="n">
-        <v>1324</v>
+        <v>322</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>53.9</v>
+        <v>41.6</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125">
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>713</v>
+        <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>574</v>
+        <v>67</v>
       </c>
       <c r="G125" t="n">
-        <v>1324</v>
+        <v>83</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>53.9</v>
+        <v>16.9</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
@@ -5581,22 +5581,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>713</v>
+        <v>40</v>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>574</v>
+        <v>98</v>
       </c>
       <c r="G126" t="n">
-        <v>1324</v>
+        <v>140</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>53.9</v>
+        <v>28.6</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
